--- a/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>191,17%</t>
+          <t>225,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>110,32%</t>
+          <t>134,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>367,61%</t>
+          <t>135,87%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>275,78%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>104,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,21</t>
+          <t>1,83; 11,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 13,5</t>
+          <t>2,49; 15,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 14,35</t>
+          <t>4,85; 19,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 17,12</t>
+          <t>5,26; 18,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 280,43</t>
+          <t>0,79; 15,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,94; 421,48</t>
+          <t>18,93; 1069,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,64; 234,23</t>
+          <t>19,15; 415,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>142,23; 912,7</t>
+          <t>31,72; 341,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>56,6; 905,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 318,46</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>126,94%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47,53%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,13</t>
+          <t>-5,31; 7,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,84</t>
+          <t>-0,86; 15,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 8,61</t>
+          <t>-4,47; 10,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 10,59</t>
+          <t>0,14; 12,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 144,82</t>
+          <t>-2,8; 21,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,48; 331,96</t>
+          <t>-46,54; 164,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 103,63</t>
+          <t>-16,28; 309,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 258,35</t>
+          <t>-29,91; 132,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 471,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 209,5</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>-9,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-44,33%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>-49,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>124,67%</t>
+          <t>44,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>317,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-32,54%</t>
         </is>
       </c>
     </row>
@@ -868,34 +934,34 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 8,82</t>
+          <t>-11,77; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 6,65</t>
+          <t>-58,09; 15,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 11,37</t>
+          <t>-10,16; 17,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 19,24</t>
+          <t>-2,12; 27,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-51,8; 19,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 163,77</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -903,7 +969,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 908,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-88,22; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>187,45%</t>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>202,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,57</t>
+          <t>-0,11; 7,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,12</t>
+          <t>-2,92; 10,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,37</t>
+          <t>2,75; 12,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,68</t>
+          <t>5,32; 14,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 139,95</t>
+          <t>-3,27; 13,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 204,59</t>
+          <t>-2,56; 209,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 122,7</t>
+          <t>-24,42; 173,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,01; 369,97</t>
+          <t>18,67; 172,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>75,95; 457,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-23,12; 139,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,89</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>225,9%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>134,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>135,87%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>275,78%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>104,52%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.603655631873466</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.5998521256468</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.54731377281554</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.2819138364429</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.88956548415335</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.259017919118123</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.549965479076509</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.402339586070325</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.444188739541495</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9735113209987341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 11,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 15,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 19,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 18,53</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 15,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,93; 1069,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>19,15; 415,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>31,72; 341,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>56,6; 905,37</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 318,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.828389913063029</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.127393779691008</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.200544527940647</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.490316809137098</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.3846724209769399</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1893414878138067</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2986219048021178</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3324036329976175</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.4211711996520895</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.01453179105936741</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.68412398452944</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.8616753609019</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.28035936002855</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.91902787871225</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>15.994463098845</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>10.69777230839891</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.54890901998074</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.40179866086858</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>8.206037017929082</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.077307289183119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,95</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>109,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 7,81</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 15,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 10,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 12,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 21,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,54; 164,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,28; 309,48</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-29,91; 132,52</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 471,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-21,31; 209,5</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.537033592081745</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.754483760180701</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.020135381101543</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.57740892272554</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.23050642560265</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.188670908128376</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.118808158133656</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.26455325656082</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.031881893235243</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4431919088997048</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-13,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,93</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,77</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>32,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-49,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>317,48%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-32,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.30645272368015</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5314435043124751</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.706011687104879</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.03502789121404619</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.206141307472364</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4653875141149637</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.0255359295791333</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3085228498069883</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1528147004848317</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2423728626817495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 13,34</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-58,09; 15,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 17,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 27,49</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-51,8; 19,1</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-88,22; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.807756067488603</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.03143895024895</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.78580542392616</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.16456695991407</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>18.97493985124542</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.646828871693698</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.809019121214309</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.318918257327274</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.519768702048159</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.817457520304364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,57</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>75,59%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>59,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>79,05%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>202,14%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>42,8%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.983132097851634</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.19494132781557</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.651155214727865</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.78999222377011</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-9.600978939505298</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3288444762082849</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.481324489278874</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3916561250942043</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.612709439824008</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3194048594228184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 7,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 10,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 12,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 14,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 13,49</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 209,61</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-24,42; 173,84</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18,67; 172,58</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>75,95; 457,22</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-23,12; 139,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.7698583073894</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-58.38941606910849</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.39012368071472</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.743302966202935</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-51.34653592504603</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="n">
+        <v>-0.8843131675204525</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.33871598172991</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.52949950976717</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.92617186112303</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25.90706143557913</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>19.56453233865834</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.06653785595486</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.517094450703699</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.665623494266365</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.993965747667898</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.122632844447011</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7559206066780692</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.7512373536714644</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7839306791923067</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.821560789298236</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3930469460586989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1087271483677819</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.26149300390898</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.581183943628744</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.741512337127945</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.822557563810943</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.02562469508429999</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1527282033951144</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.192125654544404</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.6247065192359907</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2631940521985573</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.781847641989424</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.779674130751</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.57865754800709</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.67710617920689</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.74552910294199</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.096073078529744</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.984903031956732</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.71859472957212</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.183721322053894</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.293134148656732</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1095,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
